--- a/app/Licenciatura_em_Agro_Negocios.xlsx
+++ b/app/Licenciatura_em_Agro_Negocios.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Cidalia Jose Dima</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Veronica Fenias Ndjive</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Domingas Rafael</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080104726738N</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>Sara Felimone</t>
   </si>
   <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>Veronica Rafael</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100696955P</t>
   </si>
   <si>
@@ -347,9 +332,6 @@
     <t>Cecilia Justino Nhacutove</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110500452729C</t>
   </si>
   <si>
@@ -419,9 +401,6 @@
     <t>Flora Feijao Simango</t>
   </si>
   <si>
-    <t>Distrito de Chicualacuala</t>
-  </si>
-  <si>
     <t>090404340879M</t>
   </si>
   <si>
@@ -443,9 +422,6 @@
     <t>CÉlia Raimundo Valate</t>
   </si>
   <si>
-    <t>Distrito de Magude</t>
-  </si>
-  <si>
     <t>100302267997S</t>
   </si>
   <si>
@@ -533,9 +509,6 @@
     <t>Nercia Judas Uqueio</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>090201525378Q</t>
   </si>
   <si>
@@ -557,9 +530,6 @@
     <t>Lucia Vicente Mandlate</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>+258829588184</t>
   </si>
   <si>
@@ -605,9 +575,6 @@
     <t>Virginia Francisco</t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>090900648594Q</t>
   </si>
   <si>
@@ -812,9 +779,6 @@
     <t>Filomena Francisco Cumbe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110201708346F</t>
   </si>
   <si>
@@ -876,9 +840,6 @@
   </si>
   <si>
     <t>Aida Sara Cumbana</t>
-  </si>
-  <si>
-    <t>Cidade de Maxixe</t>
   </si>
   <si>
     <t>081004751331P</t>
@@ -2144,7 +2105,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2160,7 +2121,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2176,7 +2137,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2192,7 +2153,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2208,7 +2169,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2223,9 +2184,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>123</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2233,7 +2192,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2244,7 +2203,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2253,7 +2212,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2265,7 +2224,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2273,7 +2232,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2369,7 +2328,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2412,7 +2371,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2739,7 +2698,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2755,7 +2714,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2771,7 +2730,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2787,7 +2746,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2803,7 +2762,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2818,9 +2777,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2828,7 +2785,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2839,7 +2796,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2848,7 +2805,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2860,7 +2817,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2868,7 +2825,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2964,7 +2921,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3007,7 +2964,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3334,7 +3291,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3350,7 +3307,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3366,7 +3323,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3382,7 +3339,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3398,7 +3355,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3413,9 +3370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3423,7 +3378,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3434,7 +3389,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3443,7 +3398,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3455,7 +3410,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3463,7 +3418,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3559,7 +3514,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3602,7 +3557,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3929,7 +3884,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3945,7 +3900,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3961,7 +3916,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3977,7 +3932,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3993,7 +3948,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4008,9 +3963,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4018,7 +3971,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4029,7 +3982,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4038,7 +3991,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4050,7 +4003,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4058,7 +4011,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4154,7 +4107,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4197,7 +4150,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4524,7 +4477,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4540,7 +4493,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4556,7 +4509,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4572,7 +4525,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4588,7 +4541,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4603,9 +4556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4613,7 +4564,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4624,7 +4575,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4633,7 +4584,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4645,7 +4596,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4653,7 +4604,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4749,7 +4700,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4792,7 +4743,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5119,7 +5070,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5135,7 +5086,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5151,7 +5102,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5167,7 +5118,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5183,7 +5134,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5198,9 +5149,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5208,7 +5157,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5219,7 +5168,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5228,7 +5177,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5240,7 +5189,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5248,7 +5197,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5344,7 +5293,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5387,7 +5336,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5714,7 +5663,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5730,7 +5679,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5746,7 +5695,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5762,7 +5711,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5778,7 +5727,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5793,9 +5742,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>169</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5803,7 +5750,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5814,7 +5761,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5823,7 +5770,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5835,7 +5782,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5939,7 +5886,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5982,7 +5929,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6309,7 +6256,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6325,7 +6272,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6341,7 +6288,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6357,7 +6304,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6373,7 +6320,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6388,9 +6335,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6398,7 +6343,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6409,7 +6354,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6418,7 +6363,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6430,7 +6375,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6438,7 +6383,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6534,7 +6479,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6577,7 +6522,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6904,7 +6849,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6920,7 +6865,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6936,7 +6881,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6952,7 +6897,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6968,7 +6913,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6983,9 +6928,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6993,7 +6936,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7004,7 +6947,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7013,7 +6956,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7025,7 +6968,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7033,7 +6976,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7129,7 +7072,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7172,7 +7115,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7499,7 +7442,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7515,7 +7458,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7531,7 +7474,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7547,7 +7490,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7563,7 +7506,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7578,9 +7521,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7588,7 +7529,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7599,7 +7540,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7608,7 +7549,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7620,7 +7561,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7628,7 +7569,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7724,7 +7665,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7767,7 +7708,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8173,9 +8114,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8183,7 +8122,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8194,7 +8133,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8203,7 +8142,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8215,7 +8154,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8223,7 +8162,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8319,7 +8258,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8362,7 +8301,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8689,7 +8628,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8705,7 +8644,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8721,7 +8660,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8737,7 +8676,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8753,7 +8692,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8768,9 +8707,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8778,7 +8715,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8789,7 +8726,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8798,7 +8735,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8810,7 +8747,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8818,7 +8755,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8914,7 +8851,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8957,7 +8894,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9284,7 +9221,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9300,7 +9237,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9316,7 +9253,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9332,7 +9269,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9348,7 +9285,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9363,9 +9300,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9373,7 +9308,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9384,7 +9319,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9393,7 +9328,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9405,7 +9340,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9413,7 +9348,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9509,7 +9444,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9552,7 +9487,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9879,7 +9814,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9895,7 +9830,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9911,7 +9846,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9927,7 +9862,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9943,7 +9878,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9958,9 +9893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9968,7 +9901,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9979,7 +9912,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9988,7 +9921,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10000,7 +9933,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10008,7 +9941,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10104,7 +10037,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10147,7 +10080,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10474,7 +10407,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10490,7 +10423,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10506,7 +10439,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10522,7 +10455,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10538,7 +10471,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10553,9 +10486,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10563,7 +10494,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10574,7 +10505,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10583,7 +10514,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10595,7 +10526,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10603,7 +10534,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10699,7 +10630,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10742,7 +10673,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11069,7 +11000,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11085,7 +11016,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11101,7 +11032,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11117,7 +11048,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11133,7 +11064,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11148,9 +11079,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11158,7 +11087,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11169,7 +11098,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11178,7 +11107,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11190,7 +11119,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11198,7 +11127,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11294,7 +11223,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11337,7 +11266,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11664,7 +11593,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11680,7 +11609,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11696,7 +11625,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11712,7 +11641,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11728,7 +11657,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11743,9 +11672,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11753,7 +11680,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11764,7 +11691,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11773,7 +11700,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11785,7 +11712,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11889,7 +11816,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11932,7 +11859,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12259,7 +12186,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12275,7 +12202,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12291,7 +12218,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12307,7 +12234,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12323,7 +12250,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12338,9 +12265,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12348,7 +12273,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12359,7 +12284,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12368,7 +12293,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12380,7 +12305,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12388,7 +12313,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12484,7 +12409,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12527,7 +12452,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12854,7 +12779,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12870,7 +12795,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13061,7 +12986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13427,7 +13352,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13443,7 +13368,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13459,7 +13384,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13475,7 +13400,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13491,7 +13416,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13506,9 +13431,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>254</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13516,7 +13439,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13527,7 +13450,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13536,7 +13459,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13548,7 +13471,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13556,7 +13479,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13652,7 +13575,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13695,7 +13618,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14022,7 +13945,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14038,7 +13961,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14054,7 +13977,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14070,7 +13993,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14086,7 +14009,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14101,9 +14024,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14111,7 +14032,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14122,7 +14043,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14131,7 +14052,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14143,7 +14064,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14151,7 +14072,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14247,7 +14168,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14290,7 +14211,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14617,7 +14538,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14633,7 +14554,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14649,7 +14570,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14665,7 +14586,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14681,7 +14602,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14696,9 +14617,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14706,7 +14625,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14717,7 +14636,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14726,7 +14645,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14738,7 +14657,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14842,7 +14761,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14885,7 +14804,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15212,7 +15131,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15228,7 +15147,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15244,7 +15163,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15260,7 +15179,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15276,7 +15195,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15291,9 +15210,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15301,7 +15218,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15312,7 +15229,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15321,7 +15238,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15333,7 +15250,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15341,7 +15258,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15437,7 +15354,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15480,7 +15397,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15807,7 +15724,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15823,7 +15740,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15839,7 +15756,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15855,7 +15772,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15871,7 +15788,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15886,9 +15803,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15896,7 +15811,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15907,7 +15822,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15916,7 +15831,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15928,7 +15843,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15936,7 +15851,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16032,7 +15947,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16075,7 +15990,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16458,7 +16373,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16474,7 +16389,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16490,7 +16405,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16506,7 +16421,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16522,7 +16437,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16537,9 +16452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16547,7 +16460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16558,7 +16471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16567,7 +16480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16579,7 +16492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16587,7 +16500,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16683,7 +16596,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16726,7 +16639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17053,7 +16966,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17069,7 +16982,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17085,7 +16998,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17101,7 +17014,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17117,7 +17030,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17132,9 +17045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17142,7 +17053,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17153,7 +17064,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17162,7 +17073,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17174,7 +17085,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17182,7 +17093,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17278,7 +17189,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17321,7 +17232,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17648,7 +17559,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17664,7 +17575,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17680,7 +17591,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17696,7 +17607,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17712,7 +17623,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17727,9 +17638,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17737,7 +17646,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17748,7 +17657,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17757,7 +17666,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17769,7 +17678,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17777,7 +17686,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17873,7 +17782,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17916,7 +17825,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18243,7 +18152,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18259,7 +18168,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18275,7 +18184,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18291,7 +18200,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18307,7 +18216,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18322,9 +18231,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18332,7 +18239,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18343,7 +18250,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18352,7 +18259,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18364,7 +18271,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18372,7 +18279,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18468,7 +18375,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18511,7 +18418,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18838,7 +18745,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18854,7 +18761,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18870,7 +18777,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18886,7 +18793,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18902,7 +18809,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18917,9 +18824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18927,7 +18832,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18938,7 +18843,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18947,7 +18852,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18959,7 +18864,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18967,7 +18872,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19063,7 +18968,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19106,7 +19011,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19433,7 +19338,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19449,7 +19354,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19465,7 +19370,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19481,7 +19386,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19497,7 +19402,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19512,9 +19417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19522,7 +19425,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19533,7 +19436,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19542,7 +19445,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19554,7 +19457,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19562,7 +19465,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19658,7 +19561,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19701,7 +19604,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
